--- a/automationcourse/src/test/resources/TestData.xlsx
+++ b/automationcourse/src/test/resources/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\REENA\git\SeleniumAutomationRepo\automationcourse\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02C6F3DD-7355-49E2-88F1-E23CF8502457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CDF3494-07F5-4B36-B6B2-D546B60ED57E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="5">
   <si>
     <t>standard_user</t>
   </si>
@@ -46,19 +46,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF2A00FF"/>
-      <name val="Consolas"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -81,9 +75,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -364,10 +357,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection sqref="A1:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -376,35 +369,67 @@
     <col min="2" max="2" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F14" t="s">
+        <v>0</v>
+      </c>
+      <c r="G14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F16" t="s">
+        <v>2</v>
+      </c>
+      <c r="G16" t="s">
         <v>4</v>
       </c>
     </row>
